--- a/data/theatre/sorted/1800/classified/data_1800_classified_part2.xlsx
+++ b/data/theatre/sorted/1800/classified/data_1800_classified_part2.xlsx
@@ -1,30 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/parameters-corpus-work/data/theatre/sorted/1800/classified/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC34E40-6314-3D40-901F-2F34C6AE9758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E83B246-04EC-EB41-94CD-C4E240E1A2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-68480" yWindow="-10300" windowWidth="34740" windowHeight="26460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="49" r:id="rId3"/>
+    <pivotCache cacheId="37" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5645" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5655" uniqueCount="819">
   <si>
     <t>text_4</t>
   </si>
@@ -2492,6 +2505,12 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>quoiO</t>
+  </si>
+  <si>
+    <t>quiO</t>
   </si>
 </sst>
 </file>
@@ -3338,7 +3357,605 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>calculations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E703-2E41-8E10-FB48E86D2E93}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E703-2E41-8E10-FB48E86D2E93}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-EBD4-E04E-B958-1F0C8FAEF079}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E703-2E41-8E10-FB48E86D2E93}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E703-2E41-8E10-FB48E86D2E93}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:alpha val="90000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:srgbClr val="4F81BD"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="4F81BD">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-EBD4-E04E-B958-1F0C8FAEF079}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="90000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="4F81BD"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="4F81BD">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$G$22:$I$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>est-ce que</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$29:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E703-2E41-8E10-FB48E86D2E93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3881,6 +4498,574 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="263">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:innerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d contourW="19050" prstMaterial="flat">
+        <a:contourClr>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3888,13 +5073,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>806449</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>309755</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>362857</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15119</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3914,6 +5099,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12096</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>426358</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>192315</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD0840F-2686-6582-B5E7-4C5B44B1EFA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7477,7 +8698,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC9FF803-0FDA-E345-AB92-6B34352C70D3}" name="PivotTable1" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC9FF803-0FDA-E345-AB92-6B34352C70D3}" name="PivotTable1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B4:C71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -30425,10 +31646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED700291-38FE-CD4B-B6DC-2BE481DF56A6}">
-  <dimension ref="B4:C71"/>
+  <dimension ref="B4:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" workbookViewId="0">
-      <selection activeCell="AN85" sqref="AN85"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30542,7 +31763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>8</v>
       </c>
@@ -30550,7 +31771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>802</v>
       </c>
@@ -30558,7 +31779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
@@ -30566,7 +31787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>8</v>
       </c>
@@ -30574,7 +31795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>4</v>
       </c>
@@ -30582,71 +31803,164 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="5">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="5">
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>58</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="5">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>81</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>804</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>11</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>807</v>
+      </c>
+      <c r="G26">
+        <v>66</v>
+      </c>
+      <c r="H26">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>818</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>13</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>809</v>
       </c>
       <c r="C28" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>817</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>29</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <f>SUM(G23:G28)</f>
+        <v>82</v>
+      </c>
+      <c r="H29">
+        <f>SUM(H23:H28)</f>
+        <v>212</v>
+      </c>
+      <c r="I29">
+        <f>SUM(I23:I28)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
         <v>6</v>
       </c>
@@ -30654,7 +31968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
         <v>14</v>
       </c>
@@ -30662,7 +31976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
         <v>8</v>
       </c>
@@ -30980,6 +32294,11 @@
       </c>
       <c r="C71" s="5">
         <v>699</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/theatre/sorted/1800/classified/data_1800_classified_part2.xlsx
+++ b/data/theatre/sorted/1800/classified/data_1800_classified_part2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/parameters-corpus-work/data/theatre/sorted/1800/classified/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E83B246-04EC-EB41-94CD-C4E240E1A2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0033835-6CEF-BC4F-8A91-5B87BE025905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="37" r:id="rId3"/>
+    <pivotCache cacheId="51" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5655" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5664" uniqueCount="821">
   <si>
     <t>text_4</t>
   </si>
@@ -2511,6 +2511,12 @@
   </si>
   <si>
     <t>quiO</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>autre</t>
   </si>
 </sst>
 </file>
@@ -8698,7 +8704,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC9FF803-0FDA-E345-AB92-6B34352C70D3}" name="PivotTable1" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC9FF803-0FDA-E345-AB92-6B34352C70D3}" name="PivotTable1" cacheId="51" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B4:C71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -31646,10 +31652,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED700291-38FE-CD4B-B6DC-2BE481DF56A6}">
-  <dimension ref="B4:I95"/>
+  <dimension ref="B4:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31659,39 +31665,69 @@
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>815</v>
       </c>
       <c r="C4" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="T4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="Q5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="Q6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="Q7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>812</v>
       </c>
@@ -31699,7 +31735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
@@ -31707,7 +31743,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
@@ -31715,7 +31751,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
@@ -31723,7 +31759,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
@@ -31731,7 +31767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
@@ -31739,7 +31775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
@@ -31747,7 +31783,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>811</v>
       </c>
@@ -31755,7 +31791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
@@ -31763,23 +31799,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="S17" t="s">
+        <v>12</v>
+      </c>
+      <c r="T17" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>802</v>
       </c>
       <c r="C18" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="R18">
+        <v>1800</v>
+      </c>
+      <c r="S18">
+        <f>SUM(S5:S7)</f>
+        <v>370</v>
+      </c>
+      <c r="T18">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
@@ -31787,7 +31839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>8</v>
       </c>
@@ -31795,7 +31847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>4</v>
       </c>
@@ -31803,7 +31855,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
         <v>5</v>
       </c>
@@ -31820,7 +31872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
         <v>6</v>
       </c>
@@ -31840,7 +31892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
         <v>8</v>
       </c>
@@ -31860,7 +31912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>804</v>
       </c>
@@ -31880,7 +31932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
@@ -31900,7 +31952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
         <v>6</v>
       </c>
@@ -31920,7 +31972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>809</v>
       </c>
@@ -31940,7 +31992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
         <v>5</v>
       </c>
@@ -31960,7 +32012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
         <v>6</v>
       </c>
@@ -31968,7 +32020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
         <v>14</v>
       </c>
@@ -31976,7 +32028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
         <v>8</v>
       </c>

--- a/data/theatre/sorted/1800/classified/data_1800_classified_part2.xlsx
+++ b/data/theatre/sorted/1800/classified/data_1800_classified_part2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/parameters-corpus-work/data/theatre/sorted/1800/classified/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0033835-6CEF-BC4F-8A91-5B87BE025905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE2862F-7EC9-6744-9870-F83A4C73E00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5664" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5663" uniqueCount="820">
   <si>
     <t>text_4</t>
   </si>
@@ -2511,9 +2511,6 @@
   </si>
   <si>
     <t>quiO</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>autre</t>
@@ -3921,6 +3918,940 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-04A1-2D4A-B32C-AF3411DA1D1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-04A1-2D4A-B32C-AF3411DA1D1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-04A1-2D4A-B32C-AF3411DA1D1A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-04A1-2D4A-B32C-AF3411DA1D1A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-04A1-2D4A-B32C-AF3411DA1D1A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-04A1-2D4A-B32C-AF3411DA1D1A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$R$5:$S$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>VS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>VS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>est-ce que</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>que</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>qu'</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>qu'</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$T$5:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04A1-2D4A-B32C-AF3411DA1D1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-50BE-4E49-8026-8AC503CD75D1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-50BE-4E49-8026-8AC503CD75D1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-50BE-4E49-8026-8AC503CD75D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-50BE-4E49-8026-8AC503CD75D1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$S$17:$T$17</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>que</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>autre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$S$18:$T$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50BE-4E49-8026-8AC503CD75D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3962,6 +4893,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5072,6 +6083,1142 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="263">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:innerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d contourW="19050" prstMaterial="flat">
+        <a:contourClr>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="263">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:innerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d contourW="19050" prstMaterial="flat">
+        <a:contourClr>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5141,6 +7288,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>828523</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>34471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>411237</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>26005</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970DDD0F-4D7C-F77B-9555-2769C9A00D67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>828524</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>411238</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>192314</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FD6942-938E-FD8E-A4F9-DC2B0AAFA929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -31654,8 +33873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED700291-38FE-CD4B-B6DC-2BE481DF56A6}">
   <dimension ref="B4:T95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17:T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31672,9 +33891,6 @@
       <c r="C4" t="s">
         <v>814</v>
       </c>
-      <c r="T4" t="s">
-        <v>819</v>
-      </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
@@ -31683,13 +33899,13 @@
       <c r="C5" s="5">
         <v>60</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>12</v>
       </c>
-      <c r="R5" t="s">
-        <v>8</v>
-      </c>
-      <c r="S5">
+      <c r="S5" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5">
         <v>158</v>
       </c>
     </row>
@@ -31700,13 +33916,13 @@
       <c r="C6" s="5">
         <v>60</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>4</v>
       </c>
-      <c r="R6" t="s">
-        <v>8</v>
-      </c>
-      <c r="S6">
+      <c r="S6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6">
         <v>96</v>
       </c>
     </row>
@@ -31717,13 +33933,13 @@
       <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>4</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>6</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>116</v>
       </c>
     </row>
@@ -31810,7 +34026,7 @@
         <v>12</v>
       </c>
       <c r="T17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
@@ -31824,7 +34040,7 @@
         <v>1800</v>
       </c>
       <c r="S18">
-        <f>SUM(S5:S7)</f>
+        <f>SUM(T5:T7)</f>
         <v>370</v>
       </c>
       <c r="T18">
